--- a/Mérések.xlsx
+++ b/Mérések.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au086471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD404617-51F0-4F82-BFE6-96804C0B79A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47821ADF-47B2-4CDE-882A-DA4C15E1D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1172E98-3832-4C8B-94FF-3C5431C99FC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{FB1BA211-1E0C-497B-9FEF-F2A783F7914A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,17 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Egy szál</t>
+    <t>100-as lebontás</t>
   </si>
   <si>
-    <t>Több szál</t>
+    <t>szekvenciális</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD65D1C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,11 +85,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -100,7 +111,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -112,6 +123,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prímség eldöntése másodperc/szám</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -153,11 +196,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$A$2</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Egy szál</c:v>
+                  <c:v>szekvenciális</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -174,46 +217,55 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>1369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>12251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>12252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>60151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000000</c:v>
+                  <c:v>218791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93334921</c:v>
+                  <c:v>263167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200000000</c:v>
+                  <c:v>39916801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000000000</c:v>
+                  <c:v>85340659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1073807359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1866326400</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1866326401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -224,7 +276,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -233,20 +285,29 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.215</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B298-4F8C-AC00-CC8D790B135F}"/>
+              <c16:uniqueId val="{00000000-1EA6-4EF1-8E88-6679F08BE37B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -255,11 +316,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$A$3</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Több szál</c:v>
+                  <c:v>100-as lebontás</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,79 +337,97 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>1369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>12251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>12252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>60151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000000</c:v>
+                  <c:v>218791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93334921</c:v>
+                  <c:v>263167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200000000</c:v>
+                  <c:v>39916801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000000000</c:v>
+                  <c:v>85340659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1073807359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1866326400</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1866326401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$3:$J$3</c:f>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.219</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.191</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.217</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.252</c:v>
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1749999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B298-4F8C-AC00-CC8D790B135F}"/>
+              <c16:uniqueId val="{00000001-1EA6-4EF1-8E88-6679F08BE37B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -362,11 +441,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1215651423"/>
-        <c:axId val="1215653823"/>
+        <c:axId val="635513240"/>
+        <c:axId val="635519000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1215651423"/>
+        <c:axId val="635513240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +488,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215653823"/>
+        <c:crossAx val="635519000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1215653823"/>
+        <c:axId val="635519000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +547,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215651423"/>
+        <c:crossAx val="635513240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,20 +1184,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387CF031-035B-8D1C-3176-58F44719DDF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD309B77-6D76-3F19-0B31-6043F490AA23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1455,52 +1534,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1235C99C-0017-4513-B9F4-DB345296AC5C}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD0499E-C06F-4D5A-883B-0CAF1F525491}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>10</v>
+        <v>1051</v>
       </c>
       <c r="C1">
-        <v>100</v>
+        <v>1369</v>
       </c>
       <c r="D1">
-        <v>1000</v>
+        <v>12251</v>
       </c>
       <c r="E1">
-        <v>10000</v>
+        <v>12252</v>
       </c>
       <c r="F1">
-        <v>100000</v>
+        <v>60151</v>
       </c>
       <c r="G1">
-        <v>2000000</v>
+        <v>218791</v>
       </c>
       <c r="H1">
-        <v>93334921</v>
+        <v>263167</v>
       </c>
       <c r="I1">
-        <v>1200000000</v>
+        <v>39916801</v>
       </c>
       <c r="J1">
-        <v>2000000000</v>
+        <v>85340659</v>
+      </c>
+      <c r="K1">
+        <v>1073807359</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1866326400</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1866326401</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1512,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1521,45 +1610,63 @@
         <v>1E-3</v>
       </c>
       <c r="H2">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.215</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J2">
-        <v>0.34499999999999997</v>
+        <v>1.2E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.219</v>
+        <v>1E-3</v>
       </c>
       <c r="C3">
-        <v>0.20399999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.20200000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.20499999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
-        <v>0.22</v>
+        <v>1E-3</v>
       </c>
       <c r="G3">
-        <v>0.191</v>
+        <v>1E-3</v>
       </c>
       <c r="H3">
-        <v>0.217</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I3">
-        <v>0.23599999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="J3">
-        <v>0.252</v>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K3">
+        <v>3.246</v>
+      </c>
+      <c r="L3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M3">
+        <v>6.1749999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Mérések.xlsx
+++ b/Mérések.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47821ADF-47B2-4CDE-882A-DA4C15E1D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEB26CB-AA57-4062-8444-F689604A8BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{FB1BA211-1E0C-497B-9FEF-F2A783F7914A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FB1BA211-1E0C-497B-9FEF-F2A783F7914A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>100-as lebontás</t>
   </si>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,20 @@
       <color rgb="FFD65D1C"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -85,12 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,16 +158,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Prímség eldöntése másodperc/szám</a:t>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Prím</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> számok esetén</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -217,44 +231,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1369</c:v>
+                  <c:v>10663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12251</c:v>
+                  <c:v>102329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12252</c:v>
+                  <c:v>253450711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60151</c:v>
+                  <c:v>596572387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>263167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39916801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85340659</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1073807359</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1866326400</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
+                <c:pt idx="6" formatCode="#,##0">
                   <c:v>1866326401</c:v>
                 </c:pt>
               </c:numCache>
@@ -262,10 +261,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -276,30 +275,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
@@ -307,7 +291,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EA6-4EF1-8E88-6679F08BE37B}"/>
+              <c16:uniqueId val="{00000000-B1A4-4E71-95B4-3C638F2D1741}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -337,44 +321,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1369</c:v>
+                  <c:v>10663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12251</c:v>
+                  <c:v>102329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12252</c:v>
+                  <c:v>253450711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60151</c:v>
+                  <c:v>596572387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>263167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39916801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85340659</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1073807359</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1866326400</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
+                <c:pt idx="6" formatCode="#,##0">
                   <c:v>1866326401</c:v>
                 </c:pt>
               </c:numCache>
@@ -382,44 +351,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.107</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.246</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>6.1749999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -427,7 +381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EA6-4EF1-8E88-6679F08BE37B}"/>
+              <c16:uniqueId val="{00000001-B1A4-4E71-95B4-3C638F2D1741}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -441,11 +395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="635513240"/>
-        <c:axId val="635519000"/>
+        <c:axId val="737854624"/>
+        <c:axId val="737851384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="635513240"/>
+        <c:axId val="737854624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +442,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635519000"/>
+        <c:crossAx val="737851384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -496,7 +450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635519000"/>
+        <c:axId val="737851384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +501,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635513240"/>
+        <c:crossAx val="737854624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,7 +588,977 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> szám nem prím és 2 vel osztható</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>szekvenciális</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253450710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596572388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1073807358</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1866326400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C81-45E9-87E0-0EA13AF813B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100-as lebontás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253450710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596572388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1073807358</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1866326400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C81-45E9-87E0-0EA13AF813B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="794454440"/>
+        <c:axId val="794452280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="794454440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794452280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794452280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794454440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Prímből</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> készített nem prím szám (prím négyzetek)</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>szekvenciális</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>966289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4748041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606686161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826451169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D2C-4B9B-A5C2-8648F0B3B305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100-as lebontás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>966289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4748041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606686161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826451169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9729999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D2C-4B9B-A5C2-8648F0B3B305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="795499336"/>
+        <c:axId val="795497176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="795499336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795497176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795497176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795499336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1177,6 +2101,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1184,20 +3114,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD309B77-6D76-3F19-0B31-6043F490AA23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DBDD46-6EDC-45E8-AD2C-ECA63ABBBBDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,6 +3140,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA101C39-EE23-C2C4-A682-B4DE9611D833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E4E37D-54E9-B4CD-F804-7676ED8B33C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1535,59 +3537,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD0499E-C06F-4D5A-883B-0CAF1F525491}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1051</v>
       </c>
-      <c r="C1">
-        <v>1369</v>
+      <c r="C1" s="3">
+        <v>10663</v>
       </c>
       <c r="D1">
-        <v>12251</v>
-      </c>
-      <c r="E1">
-        <v>12252</v>
-      </c>
-      <c r="F1">
-        <v>60151</v>
+        <v>102329</v>
+      </c>
+      <c r="E1" s="4">
+        <v>253450711</v>
+      </c>
+      <c r="F1" s="2">
+        <v>596572387</v>
       </c>
       <c r="G1">
-        <v>218791</v>
-      </c>
-      <c r="H1">
-        <v>263167</v>
-      </c>
-      <c r="I1">
-        <v>39916801</v>
-      </c>
-      <c r="J1">
-        <v>85340659</v>
-      </c>
-      <c r="K1">
         <v>1073807359</v>
       </c>
-      <c r="L1" s="2">
-        <v>1866326400</v>
-      </c>
-      <c r="M1" s="1">
+      <c r="H1" s="1">
         <v>1866326401</v>
       </c>
+      <c r="L1">
+        <v>6241</v>
+      </c>
+      <c r="M1" s="3">
+        <v>966289</v>
+      </c>
+      <c r="N1">
+        <v>4748041</v>
+      </c>
+      <c r="O1" s="4">
+        <v>606686161</v>
+      </c>
+      <c r="P1" s="2">
+        <v>1826451169</v>
+      </c>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1601,34 +3610,37 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0.03</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="M2">
         <v>1E-3</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.24</v>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1636,41 +3648,120 @@
         <v>1E-3</v>
       </c>
       <c r="C3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F3">
+        <v>1.659</v>
+      </c>
+      <c r="G3">
+        <v>3.246</v>
+      </c>
+      <c r="H3">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="L3">
+        <v>1E-3</v>
+      </c>
+      <c r="M3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="P3">
+        <v>5.9729999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>253450710</v>
+      </c>
+      <c r="F19" s="2">
+        <v>596572388</v>
+      </c>
+      <c r="G19">
+        <v>1073807358</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1866326400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>1E-3</v>
       </c>
-      <c r="F3">
+      <c r="C21">
         <v>1E-3</v>
       </c>
-      <c r="G3">
+      <c r="D21">
         <v>1E-3</v>
       </c>
-      <c r="H3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I3">
-        <v>0.107</v>
-      </c>
-      <c r="J3">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="K3">
-        <v>3.246</v>
-      </c>
-      <c r="L3">
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H21">
         <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M3">
-        <v>6.1749999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>